--- a/IOT_SEC_A.xlsx
+++ b/IOT_SEC_A.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,17 +412,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -439,7 +436,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>43 TR IO TD</t>
+          <t>43 TR IO TW</t>
         </is>
       </c>
     </row>
@@ -456,7 +453,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>43 TR IO TD</t>
+          <t>43 TR IO TW</t>
         </is>
       </c>
     </row>
@@ -473,7 +470,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>43 TR IO TD</t>
+          <t>43 TR IO TW</t>
         </is>
       </c>
     </row>
@@ -490,7 +487,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>43 TR IO TD</t>
+          <t>43 TR IO TW</t>
         </is>
       </c>
     </row>
@@ -525,6 +522,108 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>43 TR IO TD</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LOVE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>219311046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>43 TR IO TD</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LOVE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>219311046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>43 TR IO TD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LOVE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>219311046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>43 TR IO TD</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LOVE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>219311046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>43 TR IO TD</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Love Lakhwani</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>219311046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1D 72 B0 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Utkarsh Triphati</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>211015048</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AD B2 D3 04</t>
         </is>
       </c>
     </row>

--- a/IOT_SEC_A.xlsx
+++ b/IOT_SEC_A.xlsx
@@ -1,33 +1,226 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovelakhwani/PycharmProjects/Vision based inventory solution/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A63F82-F97D-1547-AE9E-57A8DC38A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+  <si>
+    <t>Love Lakhwani</t>
+  </si>
+  <si>
+    <t>219311046</t>
+  </si>
+  <si>
+    <t>1D 72 B0 04</t>
+  </si>
+  <si>
+    <t>Shrey Sharma</t>
+  </si>
+  <si>
+    <t>219311186</t>
+  </si>
+  <si>
+    <t>1D 15 C6 04</t>
+  </si>
+  <si>
+    <t>Nihal Sarathe</t>
+  </si>
+  <si>
+    <t>219311056</t>
+  </si>
+  <si>
+    <t>ED 8B D7 03</t>
+  </si>
+  <si>
+    <t>Vedansh Rathi</t>
+  </si>
+  <si>
+    <t>219311049</t>
+  </si>
+  <si>
+    <t>5D 92 AE 04</t>
+  </si>
+  <si>
+    <t>Piyush Chouhan</t>
+  </si>
+  <si>
+    <t>219311148</t>
+  </si>
+  <si>
+    <t>CD CC C3 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riddhima Saha </t>
+  </si>
+  <si>
+    <t>219311158</t>
+  </si>
+  <si>
+    <t>DD B9 C4 03</t>
+  </si>
+  <si>
+    <t>Ayush Sachdeva</t>
+  </si>
+  <si>
+    <t>219311048</t>
+  </si>
+  <si>
+    <t>BD A5 B7 04</t>
+  </si>
+  <si>
+    <t>Aadhya Dia</t>
+  </si>
+  <si>
+    <t>219311107</t>
+  </si>
+  <si>
+    <t>AD 6D CD 03</t>
+  </si>
+  <si>
+    <t>Piyush Sahoo</t>
+  </si>
+  <si>
+    <t>219311060</t>
+  </si>
+  <si>
+    <t>7D E5 CC 03</t>
+  </si>
+  <si>
+    <t>Ayam Bhura</t>
+  </si>
+  <si>
+    <t>219311003</t>
+  </si>
+  <si>
+    <t>BD ED B7 04</t>
+  </si>
+  <si>
+    <t>Yuvraj Singh</t>
+  </si>
+  <si>
+    <t>219311001</t>
+  </si>
+  <si>
+    <t>5D C6 C6 03</t>
+  </si>
+  <si>
+    <t>Anurag Kumar</t>
+  </si>
+  <si>
+    <t>219311275</t>
+  </si>
+  <si>
+    <t>8D AB D4 04</t>
+  </si>
+  <si>
+    <t>Ananya Singh</t>
+  </si>
+  <si>
+    <t>219311165</t>
+  </si>
+  <si>
+    <t>5D 53 B9 04</t>
+  </si>
+  <si>
+    <t>Dhruv Gupta</t>
+  </si>
+  <si>
+    <t>219311021</t>
+  </si>
+  <si>
+    <t>3D 2F CC 03</t>
+  </si>
+  <si>
+    <t>Anupam Kumar</t>
+  </si>
+  <si>
+    <t>219311254</t>
+  </si>
+  <si>
+    <t>4D 2A B3 04</t>
+  </si>
+  <si>
+    <t>Devansh Mehta</t>
+  </si>
+  <si>
+    <t>219311105</t>
+  </si>
+  <si>
+    <t>1E DD 4E 73</t>
+  </si>
+  <si>
+    <t>Dhruv Sharma</t>
+  </si>
+  <si>
+    <t>219311026</t>
+  </si>
+  <si>
+    <t>AD A1 D0 03</t>
+  </si>
+  <si>
+    <t>Arushi Sharma</t>
+  </si>
+  <si>
+    <t>219311005</t>
+  </si>
+  <si>
+    <t>2D 74 C4 04</t>
+  </si>
+  <si>
+    <t>Sahaj Jain</t>
+  </si>
+  <si>
+    <t>AD 21 C3 03</t>
+  </si>
+  <si>
+    <t>219311023</t>
+  </si>
+  <si>
+    <t>Suraj Kumar Singh</t>
+  </si>
+  <si>
+    <t>219311243</t>
+  </si>
+  <si>
+    <t>5D 41 B2 04</t>
+  </si>
+  <si>
+    <t>Sahaj jain</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +238,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,224 +544,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="3"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>LOVE</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>43 TR IO TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LOVE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>43 TR IO TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LOVE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>43 TR IO TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LOVE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>43 TR IO TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LOVE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>43 TR IO TD</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>LOVE</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>43 TR IO TD</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>LOVE</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>43 TR IO TD</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>LOVE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>43 TR IO TD</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LOVE</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>43 TR IO TD</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LOVE</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>43 TR IO TD</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Love Lakhwani</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>219311046</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1D 72 B0 04</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Utkarsh Triphati</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>211015048</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>AD B2 D3 04</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1">
+        <v>219311023</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/IOT_SEC_A.xlsx
+++ b/IOT_SEC_A.xlsx
@@ -45,8 +45,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +415,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -426,7 +429,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t>Love Lakhwani</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -436,194 +439,379 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>43 TR IO TW</t>
+          <t>1D 72 B0 04</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t>Shrey Sharma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>219311046</t>
+          <t>219311186</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>43 TR IO TW</t>
+          <t>1D 15 C6 04</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t>Nihal Sarathe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>219311046</t>
+          <t>219311056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>43 TR IO TW</t>
+          <t>ED 8B D7 03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t>Vedansh Rathi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>219311046</t>
+          <t>219311049</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>43 TR IO TW</t>
+          <t>5D 92 AE 04</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t>Piyush Chouhan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>219311046</t>
+          <t>219311148</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>43 TR IO TD</t>
+          <t>CD CC C3 04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t xml:space="preserve">Riddhima Saha </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>219311046</t>
+          <t>219311158</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43 TR IO TD</t>
+          <t>DD B9 C4 03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t>Ayush Sachdeva</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>219311046</t>
+          <t>219311048</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>43 TR IO TD</t>
+          <t>BD A5 B7 04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t>Aadhya Dia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>219311046</t>
+          <t>219311107</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>43 TR IO TD</t>
+          <t>AD 6D CD 03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t>Piyush Sahoo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>219311046</t>
+          <t>219311060</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>43 TR IO TD</t>
+          <t>7D E5 CC 03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LOVE</t>
+          <t>Ayam Bhura</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>219311046</t>
+          <t>219311003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>43 TR IO TD</t>
+          <t>BD ED B7 04</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Love Lakhwani</t>
+          <t>Yuvraj Singh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>219311046</t>
+          <t>219311001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1D 72 B0 04</t>
+          <t>5D C6 C6 03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Utkarsh Triphati</t>
+          <t>Anurag Kumar</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>211015048</t>
+          <t>219311275</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AD B2 D3 04</t>
+          <t>8D AB D4 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ananya Singh</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>219311165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5D 53 B9 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dhruv Gupta</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>219311021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3D 2F CC 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Anupam Kumar</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>219311254</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4D 2A B3 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Devansh Mehta</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>219311105</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1E DD 4E 73</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dhruv Sharma</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>219311026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AD A1 D0 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Arushi Sharma</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>219311005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2D 74 C4 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sahaj jain</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>219311023</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AD 21 C3 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sahaj Jain</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>219311023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AD 21 C3 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Suraj Kumar Singh</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>219311243</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5D 41 B2 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jay Soni</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>219301563</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4D 75 CD 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Yuvraj Puri</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>211015070</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1D C5 CA 04</t>
         </is>
       </c>
     </row>
